--- a/reactive/dm4t-randomEqual-modified.xlsx
+++ b/reactive/dm4t-randomEqual-modified.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-18.04\home\soliman\m5out_stats\reactive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF7009E-422C-4BF5-85A3-6E46DC33104D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA7A2B0-0E5B-4354-B9D0-BBD99EC9272C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2568" yWindow="0" windowWidth="29844" windowHeight="16656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3072" yWindow="3024" windowWidth="29844" windowHeight="14256" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -464,11 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AA241"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB17" sqref="AB17"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3876,7 +3875,7 @@
         <v>5.9628148148148152E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3959,7 +3958,7 @@
         <v>2.4770370370370371E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4042,7 +4041,7 @@
         <v>4.9274074074074073E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4125,7 +4124,7 @@
         <v>7.4222222222222224E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4208,7 +4207,7 @@
         <v>9.988148148148147E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4291,7 +4290,7 @@
         <v>1.239259259259259E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4374,7 +4373,7 @@
         <v>1.4845925925925931E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4457,7 +4456,7 @@
         <v>1.7278518518518519E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4540,7 +4539,7 @@
         <v>1.9712592592592591E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4623,7 +4622,7 @@
         <v>2.2346666666666661E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4706,7 +4705,7 @@
         <v>2.5011851851851851E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4789,7 +4788,7 @@
         <v>2.7451851851851849E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4872,7 +4871,7 @@
         <v>2.9875555555555561E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4955,7 +4954,7 @@
         <v>3.2405925925925928E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -5038,7 +5037,7 @@
         <v>3.477925925925926E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -5121,7 +5120,7 @@
         <v>3.7306666666666669E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -5204,7 +5203,7 @@
         <v>3.9725925925925928E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -5287,7 +5286,7 @@
         <v>4.2311111111111112E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -5370,7 +5369,7 @@
         <v>4.4866666666666673E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -5453,7 +5452,7 @@
         <v>4.7359999999999999E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -5536,7 +5535,7 @@
         <v>4.9891851851851847E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -5619,7 +5618,7 @@
         <v>5.1758518518518523E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5702,7 +5701,7 @@
         <v>5.4440000000000002E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5785,7 +5784,7 @@
         <v>5.6392592592592591E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -5868,7 +5867,7 @@
         <v>5.9094814814814822E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -5951,7 +5950,7 @@
         <v>6.0954074074074077E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -6034,7 +6033,7 @@
         <v>6.2472592592592593E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -6117,7 +6116,7 @@
         <v>6.4591111111111113E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -6200,7 +6199,7 @@
         <v>6.7285925925925916E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -6283,7 +6282,7 @@
         <v>6.9311111111111115E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -6366,7 +6365,7 @@
         <v>7.1709629629629623E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -6449,7 +6448,7 @@
         <v>7.3842962962962971E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -6532,7 +6531,7 @@
         <v>7.5872592592592589E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -6615,7 +6614,7 @@
         <v>7.7398518518518519E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -6698,7 +6697,7 @@
         <v>7.9678518518518524E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -6781,7 +6780,7 @@
         <v>8.1002962962962971E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -6864,7 +6863,7 @@
         <v>8.3786666666666662E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -6947,7 +6946,7 @@
         <v>8.4610370370370364E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -7030,7 +7029,7 @@
         <v>8.6991111111111116E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -7113,7 +7112,7 @@
         <v>8.8814814814814819E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -7196,7 +7195,7 @@
         <v>9.2174814814814821E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -7279,7 +7278,7 @@
         <v>2.4785185185185179E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -7362,7 +7361,7 @@
         <v>4.9288888888888889E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -7445,7 +7444,7 @@
         <v>7.4207407407407399E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -7528,7 +7527,7 @@
         <v>9.9674074074074075E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -7611,7 +7610,7 @@
         <v>1.239111111111111E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -7694,7 +7693,7 @@
         <v>1.4865185185185179E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -7777,7 +7776,7 @@
         <v>1.7269629629629631E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -7860,7 +7859,7 @@
         <v>1.9737777777777781E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -7943,7 +7942,7 @@
         <v>2.2371851851851851E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -8026,7 +8025,7 @@
         <v>2.4954074074074069E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -8109,7 +8108,7 @@
         <v>2.7407407407407412E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -8192,7 +8191,7 @@
         <v>2.985481481481481E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -8275,7 +8274,7 @@
         <v>3.2460740740740741E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -8358,7 +8357,7 @@
         <v>3.4860740740740741E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -8441,7 +8440,7 @@
         <v>3.7322962962962961E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -8524,7 +8523,7 @@
         <v>3.9767407407407411E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -8607,7 +8606,7 @@
         <v>4.2242962962962968E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -8690,7 +8689,7 @@
         <v>4.4795555555555547E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -8773,7 +8772,7 @@
         <v>4.703555555555556E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -8856,7 +8855,7 @@
         <v>4.9148148148148149E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -8939,7 +8938,7 @@
         <v>5.1069629629629618E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -9022,7 +9021,7 @@
         <v>5.3179259259259259E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -9105,7 +9104,7 @@
         <v>5.4994074074074077E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -9188,7 +9187,7 @@
         <v>5.7394074074074083E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -9271,7 +9270,7 @@
         <v>5.9133333333333329E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -9354,7 +9353,7 @@
         <v>6.0774814814814823E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -9437,7 +9436,7 @@
         <v>6.2813333333333332E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -9520,7 +9519,7 @@
         <v>6.4642962962962972E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -9603,7 +9602,7 @@
         <v>6.6742222222222231E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -9686,7 +9685,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -9769,7 +9768,7 @@
         <v>7.0816296296296294E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -9852,7 +9851,7 @@
         <v>7.2702222222222224E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -9935,7 +9934,7 @@
         <v>7.4324444444444443E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -10018,7 +10017,7 @@
         <v>7.5837037037037036E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -10101,7 +10100,7 @@
         <v>7.7690370370370368E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -10184,7 +10183,7 @@
         <v>7.8946666666666665E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -10267,7 +10266,7 @@
         <v>7.9761481481481475E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -10350,7 +10349,7 @@
         <v>8.1312592592592589E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -10433,7 +10432,7 @@
         <v>8.3047407407407403E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -10516,7 +10515,7 @@
         <v>8.4253333333333333E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -10599,7 +10598,7 @@
         <v>2.48E-3</v>
       </c>
     </row>
-    <row r="123" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -10682,7 +10681,7 @@
         <v>4.9259259259259256E-3</v>
       </c>
     </row>
-    <row r="124" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -10765,7 +10764,7 @@
         <v>7.410370370370371E-3</v>
       </c>
     </row>
-    <row r="125" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -10848,7 +10847,7 @@
         <v>9.9762962962962973E-3</v>
       </c>
     </row>
-    <row r="126" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -10931,7 +10930,7 @@
         <v>1.24E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -11014,7 +11013,7 @@
         <v>1.4857777777777781E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -11097,7 +11096,7 @@
         <v>1.7282962962962958E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -11180,7 +11179,7 @@
         <v>1.971703703703704E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -11263,7 +11262,7 @@
         <v>2.2348148148148152E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -11346,7 +11345,7 @@
         <v>2.4954074074074069E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -11429,7 +11428,7 @@
         <v>2.737481481481481E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -11512,7 +11511,7 @@
         <v>2.9838518518518521E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -11595,7 +11594,7 @@
         <v>3.2399999999999998E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -11678,7 +11677,7 @@
         <v>3.4758518518518508E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -11761,7 +11760,7 @@
         <v>3.7328888888888877E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -11844,7 +11843,7 @@
         <v>3.974222222222222E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -11927,7 +11926,7 @@
         <v>4.2251851851851853E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -12010,7 +12009,7 @@
         <v>4.4767407407407409E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -12093,7 +12092,7 @@
         <v>4.7339259259259261E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
@@ -12176,7 +12175,7 @@
         <v>4.9854814814814817E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
@@ -12259,7 +12258,7 @@
         <v>5.2290370370370383E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
@@ -12342,7 +12341,7 @@
         <v>5.4797037037037033E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
@@ -12425,7 +12424,7 @@
         <v>5.7217777777777777E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
@@ -12508,7 +12507,7 @@
         <v>5.9731851851851862E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
@@ -12591,7 +12590,7 @@
         <v>6.2170370370370383E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
@@ -12674,7 +12673,7 @@
         <v>6.4675555555555556E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
@@ -12757,7 +12756,7 @@
         <v>6.7096296296296293E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
@@ -12840,7 +12839,7 @@
         <v>6.9583703703703703E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
@@ -12923,7 +12922,7 @@
         <v>7.2106666666666666E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
@@ -13006,7 +13005,7 @@
         <v>7.4585185185185185E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>151</v>
       </c>
@@ -13089,7 +13088,7 @@
         <v>7.707555555555555E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>152</v>
       </c>
@@ -13172,7 +13171,7 @@
         <v>7.9595555555555558E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>153</v>
       </c>
@@ -13255,7 +13254,7 @@
         <v>8.2099259259259247E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>154</v>
       </c>
@@ -13338,7 +13337,7 @@
         <v>8.4607407407407409E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>155</v>
       </c>
@@ -13421,7 +13420,7 @@
         <v>8.7189629629629631E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>156</v>
       </c>
@@ -13504,7 +13503,7 @@
         <v>8.9693333333333333E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>157</v>
       </c>
@@ -13587,7 +13586,7 @@
         <v>9.2303703703703707E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>158</v>
       </c>
@@ -13670,7 +13669,7 @@
         <v>9.4754074074074074E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>159</v>
       </c>
@@ -13753,7 +13752,7 @@
         <v>9.7085925925925937E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>160</v>
       </c>
@@ -13836,7 +13835,7 @@
         <v>9.9397037037037048E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>161</v>
       </c>
@@ -13919,7 +13918,7 @@
         <v>2.4814814814814821E-3</v>
       </c>
     </row>
-    <row r="163" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>162</v>
       </c>
@@ -14002,7 +14001,7 @@
         <v>4.9288888888888889E-3</v>
       </c>
     </row>
-    <row r="164" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>163</v>
       </c>
@@ -14085,7 +14084,7 @@
         <v>7.4148148148148151E-3</v>
       </c>
     </row>
-    <row r="165" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>164</v>
       </c>
@@ -14168,7 +14167,7 @@
         <v>9.9748148148148148E-3</v>
       </c>
     </row>
-    <row r="166" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>165</v>
       </c>
@@ -14251,7 +14250,7 @@
         <v>1.2408888888888889E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>166</v>
       </c>
@@ -14334,7 +14333,7 @@
         <v>1.483851851851852E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>167</v>
       </c>
@@ -14417,7 +14416,7 @@
         <v>1.728592592592593E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>168</v>
       </c>
@@ -14500,7 +14499,7 @@
         <v>1.9720000000000001E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>169</v>
       </c>
@@ -14583,7 +14582,7 @@
         <v>2.2358518518518521E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>170</v>
       </c>
@@ -14666,7 +14665,7 @@
         <v>2.4962962962962961E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>171</v>
       </c>
@@ -14749,7 +14748,7 @@
         <v>2.7385185185185189E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>172</v>
       </c>
@@ -14832,7 +14831,7 @@
         <v>2.987407407407407E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>173</v>
       </c>
@@ -14915,7 +14914,7 @@
         <v>3.240296296296296E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>174</v>
       </c>
@@ -14998,7 +14997,7 @@
         <v>3.4770370370370368E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>175</v>
       </c>
@@ -15081,7 +15080,7 @@
         <v>3.7331851851851852E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>176</v>
       </c>
@@ -15164,7 +15163,7 @@
         <v>3.9727407407407413E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>177</v>
       </c>
@@ -15247,7 +15246,7 @@
         <v>4.2305185185185182E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>178</v>
       </c>
@@ -15330,7 +15329,7 @@
         <v>4.4791111111111108E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>179</v>
       </c>
@@ -15413,7 +15412,7 @@
         <v>4.7383703703703713E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>180</v>
       </c>
@@ -15496,7 +15495,7 @@
         <v>4.9897777777777777E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>181</v>
       </c>
@@ -15579,7 +15578,7 @@
         <v>5.2317037037037037E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>182</v>
       </c>
@@ -15662,7 +15661,7 @@
         <v>5.4786666666666671E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>183</v>
       </c>
@@ -15745,7 +15744,7 @@
         <v>5.7106666666666667E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>184</v>
       </c>
@@ -15828,7 +15827,7 @@
         <v>5.9269629629629617E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>185</v>
       </c>
@@ -15911,7 +15910,7 @@
         <v>6.1515555555555559E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>186</v>
       </c>
@@ -15994,7 +15993,7 @@
         <v>6.3761481481481475E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>187</v>
       </c>
@@ -16077,7 +16076,7 @@
         <v>6.5908148148148146E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>188</v>
       </c>
@@ -16160,7 +16159,7 @@
         <v>6.7955555555555561E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>189</v>
       </c>
@@ -16243,7 +16242,7 @@
         <v>7.0234074074074074E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>190</v>
       </c>
@@ -16326,7 +16325,7 @@
         <v>7.2386666666666669E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>191</v>
       </c>
@@ -16409,7 +16408,7 @@
         <v>7.4718518518518517E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>192</v>
       </c>
@@ -16492,7 +16491,7 @@
         <v>7.6674074074074075E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>193</v>
       </c>
@@ -16575,7 +16574,7 @@
         <v>7.8669629629629631E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>194</v>
       </c>
@@ -16658,7 +16657,7 @@
         <v>8.0580740740740744E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>195</v>
       </c>
@@ -16741,7 +16740,7 @@
         <v>8.2770370370370369E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>196</v>
       </c>
@@ -16824,7 +16823,7 @@
         <v>8.4557037037037042E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>197</v>
       </c>
@@ -16907,7 +16906,7 @@
         <v>8.6786666666666665E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>198</v>
       </c>
@@ -16990,7 +16989,7 @@
         <v>8.8635555555555551E-2</v>
       </c>
     </row>
-    <row r="200" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>199</v>
       </c>
@@ -17073,7 +17072,7 @@
         <v>9.0875555555555543E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>200</v>
       </c>
@@ -17156,7 +17155,7 @@
         <v>9.258370370370371E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>201</v>
       </c>
@@ -17239,7 +17238,7 @@
         <v>2.4785185185185179E-3</v>
       </c>
     </row>
-    <row r="203" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>202</v>
       </c>
@@ -17322,7 +17321,7 @@
         <v>4.96E-3</v>
       </c>
     </row>
-    <row r="204" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>203</v>
       </c>
@@ -17405,7 +17404,7 @@
         <v>7.4400000000000004E-3</v>
       </c>
     </row>
-    <row r="205" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>204</v>
       </c>
@@ -17488,7 +17487,7 @@
         <v>9.9940740740740736E-3</v>
       </c>
     </row>
-    <row r="206" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>205</v>
       </c>
@@ -17571,7 +17570,7 @@
         <v>1.2402962962962959E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>206</v>
       </c>
@@ -17654,7 +17653,7 @@
         <v>1.481777777777778E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>207</v>
       </c>
@@ -17737,7 +17736,7 @@
         <v>1.7256296296296301E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>208</v>
       </c>
@@ -17820,7 +17819,7 @@
         <v>1.971703703703704E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>209</v>
       </c>
@@ -17903,7 +17902,7 @@
         <v>2.230814814814815E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>210</v>
       </c>
@@ -17986,7 +17985,7 @@
         <v>2.491851851851852E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>211</v>
       </c>
@@ -18069,7 +18068,7 @@
         <v>2.739851851851852E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>212</v>
       </c>
@@ -18152,7 +18151,7 @@
         <v>2.9911111111111111E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>213</v>
       </c>
@@ -18235,7 +18234,7 @@
         <v>3.2426666666666673E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>214</v>
       </c>
@@ -18318,7 +18317,7 @@
         <v>3.477925925925926E-2</v>
       </c>
     </row>
-    <row r="216" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>215</v>
       </c>
@@ -18401,7 +18400,7 @@
         <v>3.7422222222222218E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>216</v>
       </c>
@@ -18484,7 +18483,7 @@
         <v>3.9828148148148147E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>217</v>
       </c>
@@ -18567,7 +18566,7 @@
         <v>4.2306666666666673E-2</v>
       </c>
     </row>
-    <row r="219" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>218</v>
       </c>
@@ -18650,7 +18649,7 @@
         <v>4.481333333333333E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>219</v>
       </c>
@@ -18733,7 +18732,7 @@
         <v>4.7343703703703707E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>220</v>
       </c>
@@ -18816,7 +18815,7 @@
         <v>4.986074074074074E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>221</v>
       </c>
@@ -18899,7 +18898,7 @@
         <v>5.2294814814814808E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>222</v>
       </c>
@@ -18982,7 +18981,7 @@
         <v>5.4828148148148147E-2</v>
       </c>
     </row>
-    <row r="224" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>223</v>
       </c>
@@ -19065,7 +19064,7 @@
         <v>5.7287407407407412E-2</v>
       </c>
     </row>
-    <row r="225" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>224</v>
       </c>
@@ -19148,7 +19147,7 @@
         <v>5.9515555555555558E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>225</v>
       </c>
@@ -19231,7 +19230,7 @@
         <v>6.0568888888888887E-2</v>
       </c>
     </row>
-    <row r="227" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>226</v>
       </c>
@@ -19314,7 +19313,7 @@
         <v>6.2482962962962962E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>227</v>
       </c>
@@ -19397,7 +19396,7 @@
         <v>6.3894814814814821E-2</v>
       </c>
     </row>
-    <row r="229" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>228</v>
       </c>
@@ -19480,7 +19479,7 @@
         <v>6.5605925925925915E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>229</v>
       </c>
@@ -19563,7 +19562,7 @@
         <v>6.7265185185185178E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>230</v>
       </c>
@@ -19646,7 +19645,7 @@
         <v>6.8998518518518528E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>231</v>
       </c>
@@ -19729,7 +19728,7 @@
         <v>7.0927407407407411E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>232</v>
       </c>
@@ -19812,7 +19811,7 @@
         <v>7.2656296296296302E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>233</v>
       </c>
@@ -19895,7 +19894,7 @@
         <v>7.4537777777777772E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>234</v>
       </c>
@@ -19978,7 +19977,7 @@
         <v>7.6134814814814822E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>235</v>
       </c>
@@ -20061,7 +20060,7 @@
         <v>7.7814814814814823E-2</v>
       </c>
     </row>
-    <row r="237" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>236</v>
       </c>
@@ -20144,7 +20143,7 @@
         <v>7.9857777777777778E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>237</v>
       </c>
@@ -20227,7 +20226,7 @@
         <v>8.135111111111111E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>238</v>
       </c>
@@ -20310,7 +20309,7 @@
         <v>8.3275555555555547E-2</v>
       </c>
     </row>
-    <row r="240" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>239</v>
       </c>
@@ -20393,7 +20392,7 @@
         <v>8.5204444444444458E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>240</v>
       </c>
@@ -20477,13 +20476,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AA241" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="triba27_bit_complement"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA241">
     <sortCondition ref="C2:C241"/>
     <sortCondition ref="D2:D241"/>
